--- a/xls/itemGiftChange.xlsx
+++ b/xls/itemGiftChange.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="10470" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="@几率变化的随机礼包" sheetId="1" r:id="rId1"/>
@@ -16,53 +16,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>关键道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>102018-1:30;102019-1:40;102020-1:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102018-1:35;102019-1:45;102020-1:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102018-1:40;102019-1:45;102020-1:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102018-1:40;102019-1:50;102020-1:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>几率变化的随机礼包:itemGiftChangeConfig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>几率   id-数量:概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102014-5:30;102015-2:50;102016-1:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102014-5:30;102015-2:60;102016-1:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104005-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104005-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104006-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104006-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104006-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[.!][funcStr]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包编号-掉落次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>percentList[.][funcGift]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyItemID[][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104005-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进化材料包</t>
+  </si>
+  <si>
+    <t>装备进化材料包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>102014-5:30;102015-2:40;102016-1:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>几率   id-数量:概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102014-5:30;102015-2:50;102016-1:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102014-5:30;102015-2:60;102016-1:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104005-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104005-2</t>
+    <t>中级进化石、高级进化石、超级进化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -70,35 +105,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>104006-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104006-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104006-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id[.!][funcStr]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼包编号-掉落次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>percentList[.][funcGift]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keyItemID[][funcInt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104005-0</t>
+    <t>单周最佳证、赛季最佳证、传球球星证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级球星进阶包</t>
+  </si>
+  <si>
+    <t>104006-4</t>
+  </si>
+  <si>
+    <t>104006-5</t>
+  </si>
+  <si>
+    <t>104006-6</t>
+  </si>
+  <si>
+    <t>102018-1:1;102019-1:49;102020-1:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102018-1:10;102019-1:60;102020-1:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102018-1:10;102019-1:70;102020-1:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102018-1:10;102019-1:75;102020-1:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102018-1:10;102019-1:80;102020-1:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102018-1:15;102019-1:80;102020-1:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102018-1:18;102019-1:80;102020-1:2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,83 +196,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -238,14 +218,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -280,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,7 +295,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,118 +504,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1">
+        <v>102016</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>102016</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>102016</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>102020</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1">
-        <v>102016</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1">
-        <v>102016</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>102020</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
-        <v>102016</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>102020</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
         <v>102020</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
         <v>102020</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
         <v>102020</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1">
         <v>102020</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -646,6 +739,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -656,7 +750,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -667,6 +761,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
